--- a/1.xlsx
+++ b/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0B911-2C7E-4E0E-9875-75F5A3ADCB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B674F90B-7BD4-4758-B4EA-25D1ED55C893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,13 +339,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0B911-2C7E-4E0E-9875-75F5A3ADCB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D527725-1D5D-4545-BB92-F8C126027C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,13 +339,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D527725-1D5D-4545-BB92-F8C126027C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0B911-2C7E-4E0E-9875-75F5A3ADCB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,15 +339,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B674F90B-7BD4-4758-B4EA-25D1ED55C893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9CAD2E-C3D6-4D10-ACD4-3017DFD60598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,15 +339,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE37CA3-EC23-4C97-A815-9CE2FEF8B73D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A2F5E-82F6-4782-AC4D-803BB7EF4665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,17 +337,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE37CA3-EC23-4C97-A815-9CE2FEF8B73D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF13CD0-8489-44CA-8A51-67BA4BC179A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,17 +337,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A2F5E-82F6-4782-AC4D-803BB7EF4665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35585679-3C1C-41D2-9E4A-B64CA290B100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -350,7 +350,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A2F5E-82F6-4782-AC4D-803BB7EF4665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC48E37-DF1D-40B6-A09F-1B418E73D7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,14 +340,14 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>1</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FD3142-009F-43AC-91E8-97F4AD594807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56626FB-070A-4F51-BB52-5F8A29262758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,14 +340,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FD3142-009F-43AC-91E8-97F4AD594807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B28CB0-93AD-4F7B-9ACC-64352DC85FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,14 +340,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>1</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\gittest2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56626FB-070A-4F51-BB52-5F8A29262758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265BDBE7-F757-490C-8056-9498574BEAB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,15 +337,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -355,6 +355,9 @@
       <c r="C1">
         <v>3</v>
       </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
